--- a/src/main/java/com/textdata/Vguard_Automation.xlsx
+++ b/src/main/java/com/textdata/Vguard_Automation.xlsx
@@ -12,6 +12,7 @@
     <sheet name="IncidentAction" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1:E20"/>
 </workbook>
 </file>
 
@@ -987,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,7 +1355,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/com/textdata/Vguard_Automation.xlsx
+++ b/src/main/java/com/textdata/Vguard_Automation.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="6645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="6645" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting" sheetId="3" r:id="rId1"/>
     <sheet name="Incident" sheetId="4" r:id="rId2"/>
     <sheet name="IncidentAction" sheetId="5" r:id="rId3"/>
+    <sheet name="EHSObservation" sheetId="6" r:id="rId4"/>
+    <sheet name="EHSObservationAction" sheetId="7" r:id="rId5"/>
+    <sheet name="EHSObservationTransfer" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1:E20"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="164">
   <si>
     <t>demogaurav007</t>
   </si>
@@ -416,6 +419,99 @@
   </si>
   <si>
     <t>DepartmentOP</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>ObservationType</t>
+  </si>
+  <si>
+    <t>Un-Safe Act</t>
+  </si>
+  <si>
+    <t>Low severity</t>
+  </si>
+  <si>
+    <t>Operating equipment without authority</t>
+  </si>
+  <si>
+    <t>ObservationCategory</t>
+  </si>
+  <si>
+    <t>NoOfPersons</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Description Automation </t>
+  </si>
+  <si>
+    <t>ReportedbyName</t>
+  </si>
+  <si>
+    <t>CHAU/SO/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approve </t>
+  </si>
+  <si>
+    <t>ActiontobeTaken</t>
+  </si>
+  <si>
+    <t>Test task assign</t>
+  </si>
+  <si>
+    <t>Action Item of EHS</t>
+  </si>
+  <si>
+    <t>pvc</t>
+  </si>
+  <si>
+    <t>HOTLAB</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>TransferUsername</t>
+  </si>
+  <si>
+    <t>TransferPassword</t>
+  </si>
+  <si>
+    <t>TransferAuthorizationAction</t>
+  </si>
+  <si>
+    <t>Send back for correct reporting</t>
+  </si>
+  <si>
+    <t>AfetrRejectUsername</t>
+  </si>
+  <si>
+    <t>AfetrRejectPassword</t>
+  </si>
+  <si>
+    <t>DiscardUsername</t>
+  </si>
+  <si>
+    <t>DiscardPassword</t>
+  </si>
+  <si>
+    <t>DiscardAuthorizationAction</t>
+  </si>
+  <si>
+    <t>Not relevant / Irrelevant</t>
+  </si>
+  <si>
+    <t>DiscardComment</t>
+  </si>
+  <si>
+    <t>Comment1</t>
+  </si>
+  <si>
+    <t>Priority1</t>
   </si>
 </sst>
 </file>
@@ -775,7 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -988,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,4 +1564,440 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="70.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>143</v>
+      </c>
+      <c r="V2" t="s">
+        <v>144</v>
+      </c>
+      <c r="W2" t="s">
+        <v>144</v>
+      </c>
+      <c r="X2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/textdata/Vguard_Automation.xlsx
+++ b/src/main/java/com/textdata/Vguard_Automation.xlsx
@@ -4,23 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="6645" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="6645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting" sheetId="3" r:id="rId1"/>
     <sheet name="Incident" sheetId="4" r:id="rId2"/>
     <sheet name="IncidentAction" sheetId="5" r:id="rId3"/>
     <sheet name="EHSObservation" sheetId="6" r:id="rId4"/>
-    <sheet name="EHSObservationAction" sheetId="7" r:id="rId5"/>
-    <sheet name="EHSObservationTransfer" sheetId="8" r:id="rId6"/>
+    <sheet name="EHSObservationNearMiss" sheetId="9" r:id="rId5"/>
+    <sheet name="EHSObservationAction" sheetId="7" r:id="rId6"/>
+    <sheet name="EHSObservationTransfer" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="169">
   <si>
     <t>demogaurav007</t>
   </si>
@@ -512,6 +512,21 @@
   </si>
   <si>
     <t>Priority1</t>
+  </si>
+  <si>
+    <t>Near Miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnitMRusername </t>
+  </si>
+  <si>
+    <t>UnitMRAuthorizationaction</t>
+  </si>
+  <si>
+    <t>ReasonofFailure</t>
+  </si>
+  <si>
+    <t>Test Reason of Failure</t>
   </si>
 </sst>
 </file>
@@ -1086,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:V2"/>
+    <sheetView topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="AU1" sqref="AU1:AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,7 +1586,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="W1" sqref="W1:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,11 +1786,356 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="70.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.7109375" customWidth="1"/>
+    <col min="32" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U2" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1859,12 +2219,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/com/textdata/Vguard_Automation.xlsx
+++ b/src/main/java/com/textdata/Vguard_Automation.xlsx
@@ -1788,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AT16" sqref="AT16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/com/textdata/Vguard_Automation.xlsx
+++ b/src/main/java/com/textdata/Vguard_Automation.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="6645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="6645" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting" sheetId="3" r:id="rId1"/>
     <sheet name="Incident" sheetId="4" r:id="rId2"/>
     <sheet name="IncidentAction" sheetId="5" r:id="rId3"/>
-    <sheet name="EHSObservation" sheetId="6" r:id="rId4"/>
-    <sheet name="EHSObservationNearMiss" sheetId="9" r:id="rId5"/>
-    <sheet name="EHSObservationAction" sheetId="7" r:id="rId6"/>
-    <sheet name="EHSObservationTransfer" sheetId="8" r:id="rId7"/>
+    <sheet name="ObservationNearMissAction" sheetId="10" r:id="rId4"/>
+    <sheet name="EHSObservation" sheetId="6" r:id="rId5"/>
+    <sheet name="EHSObservationNearMiss" sheetId="9" r:id="rId6"/>
+    <sheet name="EHSObservationAction" sheetId="7" r:id="rId7"/>
+    <sheet name="EHSObservationTransfer" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="169">
   <si>
     <t>demogaurav007</t>
   </si>
@@ -1467,9 +1468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1490,7 +1489,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1582,6 +1581,122 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="38.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
@@ -1784,11 +1899,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+    <sheetView topLeftCell="AQ1" workbookViewId="0">
       <selection activeCell="AT16" sqref="AT16"/>
     </sheetView>
   </sheetViews>
@@ -2131,11 +2246,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2219,7 +2336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
